--- a/schedules_pages.xlsx
+++ b/schedules_pages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwleo\FYNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A15687E-1A8C-4913-8182-1F6E33BA16E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A6ABE33-22FE-49C9-B668-A1568EFC37FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D15DE5D5-4498-4612-9714-F539096C1315}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D56A85A-4C32-4624-8AEB-CE4ABFDAD00F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DAA62F-2570-468A-B5D6-9AA1BC0F9B6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F167FE8A-9D23-49AE-8C51-04691E7DAC84}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -744,19 +744,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{AB8B593F-C638-49AE-8A93-5A10453D133B}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{E2F46613-C74C-466F-87B7-A78A4652CF5E}"/>
-    <hyperlink ref="B7" r:id="rId3" location="fishing" xr:uid="{BAC8CAD8-AF75-48AC-89D3-18BB475A57FA}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{11B239B6-B3A0-47B2-A227-2AC3858193B8}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{060D4044-5A14-4910-8E97-BD6E95893EE0}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{00BAFD62-297C-4CAA-A1AF-C4788FC283B5}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{7ECBB1EE-A190-47F5-9643-887D5642E12A}"/>
-    <hyperlink ref="B14" r:id="rId8" xr:uid="{784B70A9-B7CA-48F2-A5EF-F06F5B199E70}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{410E8529-D0A0-4AC9-BB8D-0C352436E110}"/>
-    <hyperlink ref="B15" r:id="rId10" xr:uid="{B2927B45-BF8D-4790-8624-968534CA755F}"/>
-    <hyperlink ref="B16" r:id="rId11" xr:uid="{B2B771DC-0D01-452A-8FFC-7AB3CC4AACDC}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{0AEA74FA-F511-4BC6-91B0-57ECC2E58F89}"/>
-    <hyperlink ref="B12" r:id="rId13" xr:uid="{5BD3DF35-5BE3-4DD7-A9F1-B563EDB02DC2}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{0B344AB1-B882-41A2-BAD4-F5CF6494561C}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{FCED6065-C1F0-4C32-9CF6-834193F6C1C9}"/>
+    <hyperlink ref="B7" r:id="rId3" location="fishing" xr:uid="{570AEEF9-E69D-4116-9016-06633674BF2A}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{639E7839-317C-4C56-8F07-D1CC2D81A71A}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{8513E8A8-147C-4A83-A531-BA18653098F6}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{7C9E88AA-4812-4A17-9418-370729AF5205}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{D9271A7D-4EA0-40EE-9E96-7E7B8AA1EBF9}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{1A413C1D-C6B3-40A3-BC1D-4A98248710DC}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{ADC04BAD-07A0-4B3B-8C2E-B3FBCB3E5CF6}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{6917BA4D-5B36-4DD6-98F4-C2B7EB143440}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{F9447F6E-7094-47AC-BEBE-FF1F3AB03557}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{5212B77A-EB0D-48B5-AB9A-E9E3DDF57099}"/>
+    <hyperlink ref="B12" r:id="rId13" xr:uid="{C013656C-646A-4589-98BC-A7005A127F49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
